--- a/firebase_data_spyCanalSOC.xlsx
+++ b/firebase_data_spyCanalSOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E531"/>
+  <dimension ref="A1:E532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9459,11 +9459,28 @@
       <c r="B531" s="2" t="n">
         <v>45792.47916666666</v>
       </c>
-      <c r="C531" t="inlineStr"/>
+      <c r="C531" t="n">
+        <v>1</v>
+      </c>
       <c r="D531" t="n">
         <v>0</v>
       </c>
-      <c r="E531" t="inlineStr"/>
+      <c r="E531" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" s="2" t="n">
+        <v>45793.47916666666</v>
+      </c>
+      <c r="C532" t="inlineStr"/>
+      <c r="D532" t="n">
+        <v>1</v>
+      </c>
+      <c r="E532" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyCanalSOC.xlsx
+++ b/firebase_data_spyCanalSOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E534"/>
+  <dimension ref="A1:E535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9510,11 +9510,28 @@
       <c r="B534" s="2" t="n">
         <v>45797.47916666666</v>
       </c>
-      <c r="C534" t="inlineStr"/>
+      <c r="C534" t="n">
+        <v>0</v>
+      </c>
       <c r="D534" t="n">
         <v>1</v>
       </c>
-      <c r="E534" t="inlineStr"/>
+      <c r="E534" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" s="2" t="n">
+        <v>45798.47916666666</v>
+      </c>
+      <c r="C535" t="inlineStr"/>
+      <c r="D535" t="n">
+        <v>0</v>
+      </c>
+      <c r="E535" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/firebase_data_spyCanalSOC.xlsx
+++ b/firebase_data_spyCanalSOC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E534"/>
+  <dimension ref="A1:E543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9510,11 +9510,164 @@
       <c r="B534" s="2" t="n">
         <v>45797.47916666666</v>
       </c>
-      <c r="C534" t="inlineStr"/>
+      <c r="C534" t="n">
+        <v>0</v>
+      </c>
       <c r="D534" t="n">
         <v>1</v>
       </c>
-      <c r="E534" t="inlineStr"/>
+      <c r="E534" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" s="2" t="n">
+        <v>45798.47916666666</v>
+      </c>
+      <c r="C535" t="n">
+        <v>0</v>
+      </c>
+      <c r="D535" t="n">
+        <v>0</v>
+      </c>
+      <c r="E535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" s="2" t="n">
+        <v>45799.47916666666</v>
+      </c>
+      <c r="C536" t="n">
+        <v>1</v>
+      </c>
+      <c r="D536" t="n">
+        <v>0</v>
+      </c>
+      <c r="E536" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" s="2" t="n">
+        <v>45800.47916666666</v>
+      </c>
+      <c r="C537" t="n">
+        <v>1</v>
+      </c>
+      <c r="D537" t="n">
+        <v>0</v>
+      </c>
+      <c r="E537" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" s="2" t="n">
+        <v>45804.47916666666</v>
+      </c>
+      <c r="C538" t="n">
+        <v>1</v>
+      </c>
+      <c r="D538" t="n">
+        <v>1</v>
+      </c>
+      <c r="E538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" s="2" t="n">
+        <v>45805.47916666666</v>
+      </c>
+      <c r="C539" t="n">
+        <v>0</v>
+      </c>
+      <c r="D539" t="n">
+        <v>1</v>
+      </c>
+      <c r="E539" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" s="2" t="n">
+        <v>45806.47916666666</v>
+      </c>
+      <c r="C540" t="n">
+        <v>0</v>
+      </c>
+      <c r="D540" t="n">
+        <v>1</v>
+      </c>
+      <c r="E540" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" s="2" t="n">
+        <v>45807.47916666666</v>
+      </c>
+      <c r="C541" t="n">
+        <v>1</v>
+      </c>
+      <c r="D541" t="n">
+        <v>1</v>
+      </c>
+      <c r="E541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" s="2" t="n">
+        <v>45810.47916666666</v>
+      </c>
+      <c r="C542" t="n">
+        <v>1</v>
+      </c>
+      <c r="D542" t="n">
+        <v>1</v>
+      </c>
+      <c r="E542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" s="2" t="n">
+        <v>45811.47916666666</v>
+      </c>
+      <c r="C543" t="inlineStr"/>
+      <c r="D543" t="n">
+        <v>1</v>
+      </c>
+      <c r="E543" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
